--- a/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_en_Bretagne/Pandémie_de_Covid-19_en_Bretagne.xlsx
+++ b/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_en_Bretagne/Pandémie_de_Covid-19_en_Bretagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Bretagne</t>
+          <t>Pandémie_de_Covid-19_en_Bretagne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente la situation en ce qui concerne la pandémie de maladie à coronavirus de 2019-2020 (COVID-19) en Bretagne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Bretagne</t>
+          <t>Pandémie_de_Covid-19_en_Bretagne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -508,47 +520,21 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Statistiques</t>
+          <t>Mesures locales</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nouveaux cas quotidiens
-Statistiques par départements</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Bretagne</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Maladie à coronavirus 2019/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_en_Bretagne</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Mesures locales</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Morbihan
-Deux communiqués de la préfecture du Morbihan sont rendus publics le 2 mars 2021 : 
-le premier est un arrêté pris le 1er mars par le préfet du Morbihan interdisant « les rassemblements collectifs, de quelle que nature que ce soit » dans l'ensemble du département jusqu'au 14 mars[3] ;
-le second, publié vers 21 h 45, allège en partie les mesures de restriction. À la suite de ce changement, le préfet du Morbihan réfute avoir reçu des pressions[4].
-L'arrêté du 1er mars est abrogé et remplacé le 4 mars par deux autres, limitant l'interdiction aux rassemblements « impliquant une promiscuité prolongée des personnes favorisant la transmission du virus » (écoles, marchés, piscines, etc.), dans les foyers épidémiques[5] et en dehors[6]. Ce second arrêté est abrogé le 5 mars, les rassemblements inférieurs à 5 000 personnes sont alors de nouveau autorisés dans les communes hors foyers épidémiques[7], avant de passer à 1 000 personnes, comme dans toute la France, le 8 mars.
+          <t>Morbihan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux communiqués de la préfecture du Morbihan sont rendus publics le 2 mars 2021 : 
+le premier est un arrêté pris le 1er mars par le préfet du Morbihan interdisant « les rassemblements collectifs, de quelle que nature que ce soit » dans l'ensemble du département jusqu'au 14 mars ;
+le second, publié vers 21 h 45, allège en partie les mesures de restriction. À la suite de ce changement, le préfet du Morbihan réfute avoir reçu des pressions.
+L'arrêté du 1er mars est abrogé et remplacé le 4 mars par deux autres, limitant l'interdiction aux rassemblements « impliquant une promiscuité prolongée des personnes favorisant la transmission du virus » (écoles, marchés, piscines, etc.), dans les foyers épidémiques et en dehors. Ce second arrêté est abrogé le 5 mars, les rassemblements inférieurs à 5 000 personnes sont alors de nouveau autorisés dans les communes hors foyers épidémiques, avant de passer à 1 000 personnes, comme dans toute la France, le 8 mars.
 </t>
         </is>
       </c>
